--- a/doc/excel/党建/[sample_member_history]历史党员导入样表.xlsx
+++ b/doc/excel/党建/[sample_member_history]历史党员导入样表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\党建\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A444C2-3C38-4227-AC0C-6AA1490DD101}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05736D75-2905-4B04-8C87-09A841B1D737}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>组织关系转入时间</t>
   </si>
@@ -80,15 +80,6 @@
   </si>
   <si>
     <t>邮箱</t>
-  </si>
-  <si>
-    <t>备注1</t>
-  </si>
-  <si>
-    <t>备注2</t>
-  </si>
-  <si>
-    <t>备注3</t>
   </si>
   <si>
     <t>人员类别</t>
@@ -96,6 +87,14 @@
   </si>
   <si>
     <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转至历史党员库详细原因</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -581,10 +580,12 @@
     <col min="17" max="17" width="18.875" style="2" customWidth="1"/>
     <col min="18" max="18" width="15.625" style="2" customWidth="1"/>
     <col min="19" max="20" width="16.125" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="21" max="22" width="9" style="2"/>
+    <col min="23" max="23" width="18.25" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -592,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>4</v>
@@ -619,7 +620,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>0</v>
@@ -652,28 +653,25 @@
         <v>19</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="E5" s="4"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="E6" s="4"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -681,7 +679,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -689,7 +687,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -697,7 +695,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -705,7 +703,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -713,31 +711,31 @@
       <c r="F11" s="3"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="7:7" ht="18" x14ac:dyDescent="0.2">

--- a/doc/excel/党建/[sample_member_history]历史党员导入样表.xlsx
+++ b/doc/excel/党建/[sample_member_history]历史党员导入样表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\党建\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05736D75-2905-4B04-8C87-09A841B1D737}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15A8C36-C5B9-4E7F-BFD0-C8944DAC8904}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="360" windowWidth="24780" windowHeight="8175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>组织关系转入时间</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>转至历史党员库详细原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：
+1、红色字段为必填字段；
+2、导入前请删除注意事项，合并单元格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,14 +118,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -165,6 +163,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -207,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -219,15 +226,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -235,10 +239,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -557,7 +564,8 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -568,7 +576,7 @@
     <col min="4" max="4" width="11.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="17.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="2" customWidth="1"/>
@@ -586,172 +594,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="G5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="G6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="G15" s="6"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="G16" s="6"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="7:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="G17" s="6"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="7:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="G18" s="6"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="7:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="G19" s="6"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="7:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="G20" s="6"/>
+      <c r="G20" s="4"/>
     </row>
   </sheetData>
   <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="B4:F14"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{3A7B1A03-ACC2-4BA4-B27B-AA0A520133CF}">
